--- a/r-material-examined/data/pilosus for Emily - a few bogus red and yellow DCD update Oct27.xlsx
+++ b/r-material-examined/data/pilosus for Emily - a few bogus red and yellow DCD update Oct27.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilydarling/GitHub/r-taxonomy/r-material-examined/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92985733-81A6-274B-B185-8F428650A60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04B41B9-2F4E-9D43-A15E-61FA46E629CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32400" yWindow="-11400" windowWidth="32300" windowHeight="21600" xr2:uid="{3DABB456-4A62-4B34-AAD0-F2DF28AFAF1A}"/>
+    <workbookView xWindow="1700" yWindow="3040" windowWidth="28800" windowHeight="17500" xr2:uid="{3DABB456-4A62-4B34-AAD0-F2DF28AFAF1A}"/>
   </bookViews>
   <sheets>
     <sheet name="pilosus only" sheetId="1" r:id="rId1"/>
     <sheet name="columns for R" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'pilosus only'!$A$1:$S$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'pilosus only'!$A$1:$S$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1110,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2088111B-DBF4-4257-9171-F9DA075AE69E}">
   <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="D35" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1120,7 +1120,10 @@
     <col min="2" max="2" width="15.1640625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="7" width="14.33203125" customWidth="1"/>
-    <col min="17" max="17" width="22.5" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="38.33203125" customWidth="1"/>
+    <col min="16" max="16" width="23.5" customWidth="1"/>
+    <col min="17" max="17" width="45.33203125" customWidth="1"/>
     <col min="18" max="18" width="35.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3853,7 +3856,7 @@
       <c r="S61" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S1" xr:uid="{2088111B-DBF4-4257-9171-F9DA075AE69E}">
+  <autoFilter ref="A1:S61" xr:uid="{2088111B-DBF4-4257-9171-F9DA075AE69E}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S61">
       <sortCondition ref="J1"/>
     </sortState>
